--- a/C2/DATA Extracted MGM/MGM Curry.xlsx
+++ b/C2/DATA Extracted MGM/MGM Curry.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MGM DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="MGM DATA FORMAT" sheetId="4" r:id="rId2"/>
+    <sheet name="CO Final Sports List" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="142">
   <si>
     <t xml:space="preserve">SR NO </t>
   </si>
@@ -229,13 +229,226 @@
   </si>
   <si>
     <t>Saknure Shivani</t>
+  </si>
+  <si>
+    <t>Muley Mayuri Sanjay</t>
+  </si>
+  <si>
+    <t>Code Master</t>
+  </si>
+  <si>
+    <t>Inter college</t>
+  </si>
+  <si>
+    <t>M S Bidve engineering college, Latur</t>
+  </si>
+  <si>
+    <t>24/09/2017 to 25/09/2017</t>
+  </si>
+  <si>
+    <t>Kabbaddi</t>
+  </si>
+  <si>
+    <t>KHO-KHO</t>
+  </si>
+  <si>
+    <t>TARE ANKITA</t>
+  </si>
+  <si>
+    <t>ATHLETICS</t>
+  </si>
+  <si>
+    <t>MALI MANISHA MOHAN</t>
+  </si>
+  <si>
+    <t>SHINDE JYOTI BHAIRAVNATH</t>
+  </si>
+  <si>
+    <t>BIRAJDAR MADHURI MADHUKAR</t>
+  </si>
+  <si>
+    <t>BALURE PRERANA KESHAVRAO</t>
+  </si>
+  <si>
+    <t>SHETE SHUBHANGI</t>
+  </si>
+  <si>
+    <t>KAMBLE KAJAL BHALCHANDRA</t>
+  </si>
+  <si>
+    <t>RATHOD MANISHA PHULCHAND</t>
+  </si>
+  <si>
+    <t>KSHIRSAGAR YOGITA BHARATRAO</t>
+  </si>
+  <si>
+    <t>SHIRPURE SNEHA SHRIMANT</t>
+  </si>
+  <si>
+    <t>Kamble vaishnavi shrimant</t>
+  </si>
+  <si>
+    <t>BASKET BALL</t>
+  </si>
+  <si>
+    <t>Jogi geeta gorkhnath</t>
+  </si>
+  <si>
+    <t>Udgire swati bhagwan</t>
+  </si>
+  <si>
+    <t>Farkande Vaishnavi A</t>
+  </si>
+  <si>
+    <t>Kamble Rupali Hirachand</t>
+  </si>
+  <si>
+    <t>Vaishnavi Suhas Potdar</t>
+  </si>
+  <si>
+    <t>Balure Prerana Keshavrao</t>
+  </si>
+  <si>
+    <t>BARMADE AISHWARYA VITHAL</t>
+  </si>
+  <si>
+    <t>VolleyBall</t>
+  </si>
+  <si>
+    <t>CHESS</t>
+  </si>
+  <si>
+    <t>Kabaddi</t>
+  </si>
+  <si>
+    <t>Gurude Mahananda Madhukar</t>
+  </si>
+  <si>
+    <t>Kamble Kajal Bhalchandra</t>
+  </si>
+  <si>
+    <t>Birajdar Madhuri Madhukar</t>
+  </si>
+  <si>
+    <t>Gardener Manisha Mohan</t>
+  </si>
+  <si>
+    <t>Shirpure Sneha Shrimant</t>
+  </si>
+  <si>
+    <t>Zonal Competition 2018 W-2 Zone</t>
+  </si>
+  <si>
+    <t>05.01.2018 to 07.01.2018</t>
+  </si>
+  <si>
+    <t>Rural Polytechnic, Nanded</t>
+  </si>
+  <si>
+    <t>Inter-Zonal Competition 2018 W-2 Zone</t>
+  </si>
+  <si>
+    <t>25.02.2018 to 26.02.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Residential Women's Polytechnic, Tasgaon </t>
+  </si>
+  <si>
+    <t>ACADEMIC YEAR - 2018 - 2019</t>
+  </si>
+  <si>
+    <t>Zonal Competition 2019 Zone-W2</t>
+  </si>
+  <si>
+    <t>15/01/2019 to 17/01/2019</t>
+  </si>
+  <si>
+    <t>Government Polytechnic, Hingoli</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-20</t>
+  </si>
+  <si>
+    <t>Government  Residetial Women's Polytechnic Latur</t>
+  </si>
+  <si>
+    <t>12, 13 and 14 February 2019</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-21</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-22</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-23</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-24</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-25</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-26</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-27</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-28</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-29</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-30</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-31</t>
+  </si>
+  <si>
+    <t>State level Inter Zonal Competition 2019-32</t>
+  </si>
+  <si>
+    <t>Zonal Competition - 2020 Zone-W2</t>
+  </si>
+  <si>
+    <t>ACADEMIC YEAR - 2019 - 2020</t>
+  </si>
+  <si>
+    <t>Kale Sharyu Maruti</t>
+  </si>
+  <si>
+    <t>Gude Vaishnavi Pramod</t>
+  </si>
+  <si>
+    <t>13/01/2020 to 15/01/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kale Sharyu Maruti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gude Vaishnavi Pramod</t>
+  </si>
+  <si>
+    <t>Inter Zonal Competition 2020</t>
+  </si>
+  <si>
+    <t>15/02/2020 to 16/02/2020</t>
+  </si>
+  <si>
+    <t>Zonal Competition 2017 W-2 Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRWP Latur, Participation of Computer Engineering students in Sports </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,16 +493,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -411,11 +663,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,12 +811,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -486,6 +819,82 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J36"/>
+  <dimension ref="B6:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,145 +1205,58 @@
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B3" s="20" t="s">
+    <row r="6" spans="2:10" ht="16.5" thickBot="1">
+      <c r="B6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="2:10" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="2:10" s="19" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J7" s="18" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4">
-        <v>43252</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4">
-        <v>43252</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="4">
-        <v>43252</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75">
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -949,21 +1271,21 @@
         <v>43252</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75">
       <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -978,21 +1300,21 @@
         <v>43252</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75">
       <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -1012,15 +1334,15 @@
     </row>
     <row r="11" spans="2:10" ht="15.75">
       <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1035,687 +1357,774 @@
       <c r="I11" s="4">
         <v>43252</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B12" s="11">
+    <row r="12" spans="2:10" ht="15.75">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4">
+        <v>43252</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75">
+      <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4">
+        <v>43252</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75">
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4">
+        <v>43252</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B15" s="11">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B13" s="13">
+    <row r="16" spans="2:10" ht="20.25" customHeight="1">
+      <c r="B16" s="13">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B14" s="11">
+    <row r="17" spans="2:10" ht="23.25" customHeight="1">
+      <c r="B17" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="21" t="s">
+    <row r="19" spans="2:10">
+      <c r="B19" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="22" t="s">
+      <c r="C19" s="44"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J20" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B18" s="23">
+    <row r="21" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B21" s="21">
         <v>1</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.75">
-      <c r="B19" s="23">
-        <v>2</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="15.75">
-      <c r="B20" s="23">
-        <v>3</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15.75">
-      <c r="B21" s="23">
-        <v>4</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="21" t="s">
         <v>40</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75">
-      <c r="B22" s="24">
-        <v>5</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="B22" s="21">
+        <v>2</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="21" t="s">
         <v>40</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="24" t="s">
-        <v>15</v>
+      <c r="J22" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75">
-      <c r="B23" s="23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>23</v>
+      <c r="B23" s="21">
+        <v>3</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="21" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="23" t="s">
-        <v>49</v>
+      <c r="J23" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75">
-      <c r="B24" s="24">
-        <v>7</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="B24" s="21">
+        <v>4</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="21" t="s">
         <v>40</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B25" s="23">
-        <v>8</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>53</v>
+      <c r="J24" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75">
+      <c r="B25" s="22">
+        <v>5</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="24">
-        <v>9</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="F25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75">
+      <c r="B26" s="21">
+        <v>6</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75">
+      <c r="B27" s="22">
+        <v>7</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B28" s="21">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="15.75">
-      <c r="B27" s="23">
-        <v>10</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="24">
-        <v>11</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>10</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.75">
-      <c r="B29" s="23">
-        <v>12</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>10</v>
+    <row r="29" spans="2:10">
+      <c r="B29" s="22">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="24">
-        <v>13</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="24" t="s">
+    <row r="30" spans="2:10" ht="15.75">
+      <c r="B30" s="21">
+        <v>10</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.75">
-      <c r="B31" s="23">
-        <v>14</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="24" t="s">
+    <row r="31" spans="2:10">
+      <c r="B31" s="22">
+        <v>11</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15.75">
-      <c r="B32" s="24">
-        <v>15</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="24" t="s">
+      <c r="B32" s="21">
+        <v>12</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="15.75">
-      <c r="B33" s="23">
-        <v>16</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="J32" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="22">
+        <v>13</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="15.75">
-      <c r="B34" s="24">
-        <v>17</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="24" t="s">
+      <c r="B34" s="21">
+        <v>14</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="24" t="s">
-        <v>49</v>
+      <c r="J34" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.75">
-      <c r="B35" s="23">
-        <v>18</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="24" t="s">
+      <c r="B35" s="22">
+        <v>15</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J35" s="24" t="s">
-        <v>44</v>
+      <c r="J35" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75">
-      <c r="B36" s="24">
-        <v>19</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="B36" s="21">
+        <v>16</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="22" t="s">
         <v>56</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75">
+      <c r="B37" s="22">
+        <v>17</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75">
+      <c r="B38" s="21">
+        <v>18</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75">
+      <c r="B39" s="22">
+        <v>19</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="22" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1724,24 +2133,2520 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="45"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75">
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75">
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75">
+      <c r="B12" s="1"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75">
+      <c r="B13" s="11"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75">
+      <c r="B14" s="13"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75">
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="21" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="43"/>
+    </row>
+    <row r="22" spans="2:8" s="19" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4">
+        <v>43252</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75">
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="4">
+        <v>43252</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75">
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="4">
+        <v>43252</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75">
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="4">
+        <v>43252</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75">
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="4">
+        <v>43252</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75">
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="4">
+        <v>43252</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75">
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="4">
+        <v>43252</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17.25" customHeight="1">
+      <c r="B30" s="11">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B31" s="13">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B32" s="11">
+        <v>8</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="44"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="19.5" customHeight="1">
+      <c r="B36" s="21">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75">
+      <c r="B37" s="21">
+        <v>2</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75">
+      <c r="B38" s="21">
+        <v>3</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75">
+      <c r="B39" s="21">
+        <v>4</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75">
+      <c r="B40" s="22">
+        <v>5</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75">
+      <c r="B41" s="21">
+        <v>6</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15.75">
+      <c r="B42" s="22">
+        <v>7</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17.25" customHeight="1">
+      <c r="B43" s="21">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="22">
+        <v>9</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15.75">
+      <c r="B45" s="21">
+        <v>10</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="22">
+        <v>11</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15.75">
+      <c r="B47" s="21">
+        <v>12</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="22">
+        <v>13</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="15.75">
+      <c r="B49" s="21">
+        <v>14</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="15.75">
+      <c r="B50" s="22">
+        <v>15</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75">
+      <c r="B51" s="21">
+        <v>16</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15.75">
+      <c r="B52" s="22">
+        <v>17</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="15.75">
+      <c r="B53" s="21">
+        <v>18</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15.75">
+      <c r="B54" s="22">
+        <v>19</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B34:C34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="19.5">
+      <c r="D2" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="23">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="23">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="23">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="23">
+        <v>7</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="23">
+        <v>8</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="23">
+        <v>9</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="23">
+        <v>10</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="23">
+        <v>11</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="23">
+        <v>12</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="23">
+        <v>13</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="23">
+        <v>14</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="23">
+        <v>2</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="23">
+        <v>3</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="23">
+        <v>4</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="23">
+        <v>5</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="23">
+        <v>6</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="23">
+        <v>7</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="23">
+        <v>8</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="2:8" ht="21" customHeight="1">
+      <c r="B34" s="23">
+        <v>9</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="23">
+        <v>10</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="23">
+        <v>11</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="23">
+        <v>12</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="23">
+        <v>13</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="23">
+        <v>14</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="23">
+        <v>15</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="23">
+        <v>16</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="23">
+        <v>17</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="23">
+        <v>18</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="23">
+        <v>19</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="23">
+        <v>20</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="23">
+        <v>21</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="23">
+        <v>22</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="23">
+        <v>23</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="23">
+        <v>24</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="23">
+        <v>25</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="23">
+        <v>26</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="54" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B54" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="45"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="23">
+        <v>1</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="23">
+        <v>2</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="23">
+        <v>3</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="23">
+        <v>4</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="23">
+        <v>5</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="2:8" ht="18" customHeight="1">
+      <c r="B61" s="23">
+        <v>6</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="2:8" ht="18" customHeight="1">
+      <c r="B62" s="23">
+        <v>7</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="2:8" ht="18" customHeight="1">
+      <c r="B63" s="23">
+        <v>8</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="2:8" ht="18" customHeight="1">
+      <c r="B64" s="23">
+        <v>9</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="2:8" ht="18" customHeight="1">
+      <c r="B65" s="23">
+        <v>10</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.75">
+      <c r="B69" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="47"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="23">
+        <v>1</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="23">
+        <v>2</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="23">
+        <v>3</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" s="41"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="23">
+        <v>4</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="41"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="23">
+        <v>5</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" s="41"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="23">
+        <v>6</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="41"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="23">
+        <v>7</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="41"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="23">
+        <v>8</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="41"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="23">
+        <v>9</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="41"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="23">
+        <v>10</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="41"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="23">
+        <v>11</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="41"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="23">
+        <v>12</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="41"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="23">
+        <v>13</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="41"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="23">
+        <v>14</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="41"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="23">
+        <v>15</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="41"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="23">
+        <v>16</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="41"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="23">
+        <v>17</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="41"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="23">
+        <v>18</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="41"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="23">
+        <v>19</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>